--- a/results/daily/largest_window.xlsx
+++ b/results/daily/largest_window.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>y_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>x_number_of_days_before_delivery</t>
         </is>
@@ -482,9 +487,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8709391504526138</v>
+        <v>0.008976037614047527</v>
       </c>
       <c r="G2" t="n">
+        <v>0.9910239623859525</v>
+      </c>
+      <c r="H2" t="n">
         <v>57</v>
       </c>
     </row>
@@ -505,9 +513,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7398005723953247</v>
+        <v>0.01882229186594486</v>
       </c>
       <c r="G3" t="n">
+        <v>0.9811777081340551</v>
+      </c>
+      <c r="H3" t="n">
         <v>18</v>
       </c>
     </row>
@@ -528,9 +539,12 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6439501643180847</v>
+        <v>0.003961340524256229</v>
       </c>
       <c r="G4" t="n">
+        <v>0.9960386594757438</v>
+      </c>
+      <c r="H4" t="n">
         <v>47</v>
       </c>
     </row>
@@ -551,9 +565,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7272875010967255</v>
+        <v>0.1314113587141037</v>
       </c>
       <c r="G5" t="n">
+        <v>0.8685886412858963</v>
+      </c>
+      <c r="H5" t="n">
         <v>123</v>
       </c>
     </row>
@@ -574,9 +591,12 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6507107317447662</v>
+        <v>0.0828266441822052</v>
       </c>
       <c r="G6" t="n">
+        <v>0.9171733558177948</v>
+      </c>
+      <c r="H6" t="n">
         <v>172</v>
       </c>
     </row>
@@ -597,9 +617,12 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9100528955459595</v>
+        <v>1.901064365483762e-06</v>
       </c>
       <c r="G7" t="n">
+        <v>0.9999980989356345</v>
+      </c>
+      <c r="H7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -620,9 +643,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8811796009540558</v>
+        <v>0.004038491751998663</v>
       </c>
       <c r="G8" t="n">
+        <v>0.9959615082480013</v>
+      </c>
+      <c r="H8" t="n">
         <v>38</v>
       </c>
     </row>
@@ -643,9 +669,12 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5095525681972504</v>
+        <v>0.02766335755586624</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9723366424441338</v>
+      </c>
+      <c r="H9" t="n">
         <v>65</v>
       </c>
     </row>
@@ -660,15 +689,18 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6775135099887848</v>
+        <v>0.6372952461242676</v>
       </c>
       <c r="G10" t="n">
+        <v>0.6372952461242676</v>
+      </c>
+      <c r="H10" t="n">
         <v>61</v>
       </c>
     </row>
@@ -683,15 +715,18 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6576960682868958</v>
+        <v>0.0007124752155505121</v>
       </c>
       <c r="G11" t="n">
+        <v>0.9992875247844495</v>
+      </c>
+      <c r="H11" t="n">
         <v>20</v>
       </c>
     </row>
@@ -712,9 +747,12 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.836904764175415</v>
+        <v>0.0006824049632996321</v>
       </c>
       <c r="G12" t="n">
+        <v>0.9993175950367004</v>
+      </c>
+      <c r="H12" t="n">
         <v>122</v>
       </c>
     </row>
@@ -735,9 +773,12 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9779291432350874</v>
+        <v>0.03795108944177628</v>
       </c>
       <c r="G13" t="n">
+        <v>0.9620489105582237</v>
+      </c>
+      <c r="H13" t="n">
         <v>116</v>
       </c>
     </row>
@@ -758,9 +799,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6554971635341644</v>
+        <v>0.09111469238996506</v>
       </c>
       <c r="G14" t="n">
+        <v>0.9088853076100349</v>
+      </c>
+      <c r="H14" t="n">
         <v>162</v>
       </c>
     </row>
@@ -781,9 +825,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5701893270015717</v>
+        <v>0.08750881999731064</v>
       </c>
       <c r="G15" t="n">
+        <v>0.9124911800026894</v>
+      </c>
+      <c r="H15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -804,9 +851,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9921833975240588</v>
+        <v>2.966397369164042e-05</v>
       </c>
       <c r="G16" t="n">
+        <v>0.9999703360263084</v>
+      </c>
+      <c r="H16" t="n">
         <v>139</v>
       </c>
     </row>
@@ -827,9 +877,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8026328086853027</v>
+        <v>0.008106962777674198</v>
       </c>
       <c r="G17" t="n">
+        <v>0.9918930372223258</v>
+      </c>
+      <c r="H17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -850,9 +903,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5649382174015045</v>
+        <v>0.0002629042137414217</v>
       </c>
       <c r="G18" t="n">
+        <v>0.9997370957862586</v>
+      </c>
+      <c r="H18" t="n">
         <v>96</v>
       </c>
     </row>
@@ -873,9 +929,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5140493810176849</v>
+        <v>0.002008272102102637</v>
       </c>
       <c r="G19" t="n">
+        <v>0.9979917278978974</v>
+      </c>
+      <c r="H19" t="n">
         <v>48</v>
       </c>
     </row>
@@ -896,9 +955,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6434182822704315</v>
+        <v>0.01864824630320072</v>
       </c>
       <c r="G20" t="n">
+        <v>0.9813517536967993</v>
+      </c>
+      <c r="H20" t="n">
         <v>44</v>
       </c>
     </row>
@@ -919,9 +981,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6934539675712585</v>
+        <v>0.0002029054885497317</v>
       </c>
       <c r="G21" t="n">
+        <v>0.9997970945114503</v>
+      </c>
+      <c r="H21" t="n">
         <v>120</v>
       </c>
     </row>
@@ -942,9 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.707880824804306</v>
+        <v>0.0009893742389976978</v>
       </c>
       <c r="G22" t="n">
+        <v>0.9990106257610023</v>
+      </c>
+      <c r="H22" t="n">
         <v>147</v>
       </c>
     </row>
@@ -965,9 +1033,12 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9051724374294281</v>
+        <v>0.004614307079464197</v>
       </c>
       <c r="G23" t="n">
+        <v>0.9953856929205358</v>
+      </c>
+      <c r="H23" t="n">
         <v>164</v>
       </c>
     </row>
@@ -988,9 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8172745555639267</v>
+        <v>0.0006905361660756171</v>
       </c>
       <c r="G24" t="n">
+        <v>0.9993094638339244</v>
+      </c>
+      <c r="H24" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1011,9 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8864617943763733</v>
+        <v>0.0004841279587708414</v>
       </c>
       <c r="G25" t="n">
+        <v>0.9995158720412292</v>
+      </c>
+      <c r="H25" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1034,9 +1111,12 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.616844117641449</v>
+        <v>0.005989637225866318</v>
       </c>
       <c r="G26" t="n">
+        <v>0.9940103627741337</v>
+      </c>
+      <c r="H26" t="n">
         <v>183</v>
       </c>
     </row>
@@ -1057,9 +1137,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9703635163605213</v>
+        <v>0.02162766456604004</v>
       </c>
       <c r="G27" t="n">
+        <v>0.97837233543396</v>
+      </c>
+      <c r="H27" t="n">
         <v>83</v>
       </c>
     </row>
@@ -1080,9 +1163,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9448883086442947</v>
+        <v>0.002254727762192488</v>
       </c>
       <c r="G28" t="n">
+        <v>0.9977452722378075</v>
+      </c>
+      <c r="H28" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1103,9 +1189,12 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6606771051883698</v>
+        <v>0.003247228683903813</v>
       </c>
       <c r="G29" t="n">
+        <v>0.9967527713160962</v>
+      </c>
+      <c r="H29" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1126,9 +1215,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9231820106506348</v>
+        <v>0.9873680472373962</v>
       </c>
       <c r="G30" t="n">
+        <v>0.9873680472373962</v>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1149,9 +1241,12 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7171251773834229</v>
+        <v>0.9576898217201233</v>
       </c>
       <c r="G31" t="n">
+        <v>0.9576898217201233</v>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1172,9 +1267,12 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5929892063140869</v>
+        <v>0.9971250891685486</v>
       </c>
       <c r="G32" t="n">
+        <v>0.9971250891685486</v>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1195,9 +1293,12 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9473038911819458</v>
+        <v>0.980674684047699</v>
       </c>
       <c r="G33" t="n">
+        <v>0.980674684047699</v>
+      </c>
+      <c r="H33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1218,9 +1319,12 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.993602454662323</v>
+        <v>0.9899582266807556</v>
       </c>
       <c r="G34" t="n">
+        <v>0.9899582266807556</v>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1241,9 +1345,12 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6827659010887146</v>
+        <v>0.9266487956047058</v>
       </c>
       <c r="G35" t="n">
+        <v>0.9266487956047058</v>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1264,9 +1371,12 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8266769051551819</v>
+        <v>0.8324675559997559</v>
       </c>
       <c r="G36" t="n">
+        <v>0.8324675559997559</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1287,9 +1397,12 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8742800951004028</v>
+        <v>0.9999992847442627</v>
       </c>
       <c r="G37" t="n">
+        <v>0.9999992847442627</v>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1310,9 +1423,12 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8556858897209167</v>
+        <v>0.9914711117744446</v>
       </c>
       <c r="G38" t="n">
+        <v>0.9914711117744446</v>
+      </c>
+      <c r="H38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1333,9 +1449,12 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6418206691741943</v>
+        <v>0.9999762773513794</v>
       </c>
       <c r="G39" t="n">
+        <v>0.9999762773513794</v>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,15 +1469,18 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6418102383613586</v>
+        <v>0.9894387125968933</v>
       </c>
       <c r="G40" t="n">
+        <v>0.9894387125968933</v>
+      </c>
+      <c r="H40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1379,9 +1501,12 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9943163990974426</v>
+        <v>0.9991102814674377</v>
       </c>
       <c r="G41" t="n">
+        <v>0.9991102814674377</v>
+      </c>
+      <c r="H41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1402,9 +1527,12 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9896336793899536</v>
+        <v>0.9998346567153931</v>
       </c>
       <c r="G42" t="n">
+        <v>0.9998346567153931</v>
+      </c>
+      <c r="H42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,9 +1553,12 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9254555702209473</v>
+        <v>0.9996459484100342</v>
       </c>
       <c r="G43" t="n">
+        <v>0.9996459484100342</v>
+      </c>
+      <c r="H43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1448,9 +1579,12 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9789413213729858</v>
+        <v>0.9426864981651306</v>
       </c>
       <c r="G44" t="n">
+        <v>0.9426864981651306</v>
+      </c>
+      <c r="H44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1471,9 +1605,12 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8396569490432739</v>
+        <v>0.9874180555343628</v>
       </c>
       <c r="G45" t="n">
+        <v>0.9874180555343628</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1494,9 +1631,12 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6860541701316833</v>
+        <v>0.8751366138458252</v>
       </c>
       <c r="G46" t="n">
+        <v>0.8751366138458252</v>
+      </c>
+      <c r="H46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1517,9 +1657,12 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9993327260017395</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1540,9 +1683,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5232266783714294</v>
+        <v>0.99847012758255</v>
       </c>
       <c r="G48" t="n">
+        <v>0.99847012758255</v>
+      </c>
+      <c r="H48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1563,9 +1709,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9615737795829773</v>
+        <v>0.9999988079071045</v>
       </c>
       <c r="G49" t="n">
+        <v>0.9999988079071045</v>
+      </c>
+      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1586,9 +1735,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6062877774238586</v>
+        <v>0.7454937696456909</v>
       </c>
       <c r="G50" t="n">
+        <v>0.7454937696456909</v>
+      </c>
+      <c r="H50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1603,15 +1755,18 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.551061600446701</v>
+        <v>0.9427674412727356</v>
       </c>
       <c r="G51" t="n">
+        <v>0.9427674412727356</v>
+      </c>
+      <c r="H51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1632,9 +1787,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9258713126182556</v>
+        <v>0.9999641180038452</v>
       </c>
       <c r="G52" t="n">
+        <v>0.9999641180038452</v>
+      </c>
+      <c r="H52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1655,9 +1813,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8642712235450745</v>
+        <v>0.9952750205993652</v>
       </c>
       <c r="G53" t="n">
+        <v>0.9952750205993652</v>
+      </c>
+      <c r="H53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1678,9 +1839,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9832139015197754</v>
+        <v>0.9707185626029968</v>
       </c>
       <c r="G54" t="n">
+        <v>0.9707185626029968</v>
+      </c>
+      <c r="H54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1865,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.96151202917099</v>
+        <v>0.9959741234779358</v>
       </c>
       <c r="G55" t="n">
+        <v>0.9959741234779358</v>
+      </c>
+      <c r="H55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1724,9 +1891,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9973837733268738</v>
+        <v>0.9981854557991028</v>
       </c>
       <c r="G56" t="n">
+        <v>0.9981854557991028</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1747,9 +1917,12 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6971139907836914</v>
+        <v>0.9843903183937073</v>
       </c>
       <c r="G57" t="n">
+        <v>0.9843903183937073</v>
+      </c>
+      <c r="H57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,9 +1943,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7653545141220093</v>
+        <v>0.9941837191581726</v>
       </c>
       <c r="G58" t="n">
+        <v>0.9941837191581726</v>
+      </c>
+      <c r="H58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1793,9 +1969,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9951702952384949</v>
+        <v>0.9967613816261292</v>
       </c>
       <c r="G59" t="n">
+        <v>0.9967613816261292</v>
+      </c>
+      <c r="H59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1816,9 +1995,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9960471987724304</v>
+        <v>0.9865495562553406</v>
       </c>
       <c r="G60" t="n">
+        <v>0.9865495562553406</v>
+      </c>
+      <c r="H60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1839,9 +2021,12 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9291268587112427</v>
+        <v>0.9638973474502563</v>
       </c>
       <c r="G61" t="n">
+        <v>0.9638973474502563</v>
+      </c>
+      <c r="H61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1862,9 +2047,12 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9634580016136169</v>
+        <v>0.9980849027633667</v>
       </c>
       <c r="G62" t="n">
+        <v>0.9980849027633667</v>
+      </c>
+      <c r="H62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1885,9 +2073,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9797476530075073</v>
+        <v>0.9998563528060913</v>
       </c>
       <c r="G63" t="n">
+        <v>0.9998563528060913</v>
+      </c>
+      <c r="H63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1908,9 +2099,12 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6555421948432922</v>
+        <v>0.9712402820587158</v>
       </c>
       <c r="G64" t="n">
+        <v>0.9712402820587158</v>
+      </c>
+      <c r="H64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1925,15 +2119,18 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.545990526676178</v>
+        <v>0.9954373240470886</v>
       </c>
       <c r="G65" t="n">
+        <v>0.9954373240470886</v>
+      </c>
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1954,9 +2151,12 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8032862544059753</v>
+        <v>0.9410984516143799</v>
       </c>
       <c r="G66" t="n">
+        <v>0.9410984516143799</v>
+      </c>
+      <c r="H66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1977,9 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9420440196990967</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="G67" t="n">
+        <v>0.9999997615814209</v>
+      </c>
+      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2000,9 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9218873381614685</v>
+        <v>0.9995972514152527</v>
       </c>
       <c r="G68" t="n">
+        <v>0.9995972514152527</v>
+      </c>
+      <c r="H68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2023,9 +2229,12 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8450256586074829</v>
+        <v>0.998900294303894</v>
       </c>
       <c r="G69" t="n">
+        <v>0.998900294303894</v>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2046,9 +2255,12 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9918266534805298</v>
+        <v>0.9945013523101807</v>
       </c>
       <c r="G70" t="n">
+        <v>0.9945013523101807</v>
+      </c>
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2281,12 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8355029821395874</v>
+        <v>0.9917213320732117</v>
       </c>
       <c r="G71" t="n">
+        <v>0.9917213320732117</v>
+      </c>
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2092,9 +2307,12 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7074755430221558</v>
+        <v>0.9851203560829163</v>
       </c>
       <c r="G72" t="n">
+        <v>0.9851203560829163</v>
+      </c>
+      <c r="H72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2115,9 +2333,12 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9906882047653198</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="G73" t="n">
+        <v>0.9999761581420898</v>
+      </c>
+      <c r="H73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2138,9 +2359,12 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9868116974830627</v>
+        <v>0.9999939203262329</v>
       </c>
       <c r="G74" t="n">
+        <v>0.9999939203262329</v>
+      </c>
+      <c r="H74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2161,9 +2385,12 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5849535465240479</v>
+        <v>0.9864439368247986</v>
       </c>
       <c r="G75" t="n">
+        <v>0.9864439368247986</v>
+      </c>
+      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2184,9 +2411,12 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9519649147987366</v>
+        <v>0.9354772567749023</v>
       </c>
       <c r="G76" t="n">
+        <v>0.9354772567749023</v>
+      </c>
+      <c r="H76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,9 +2437,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9975467324256897</v>
+        <v>0.9981259703636169</v>
       </c>
       <c r="G77" t="n">
+        <v>0.9981259703636169</v>
+      </c>
+      <c r="H77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2230,9 +2463,12 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6929442286491394</v>
+        <v>0.9462543129920959</v>
       </c>
       <c r="G78" t="n">
+        <v>0.9462543129920959</v>
+      </c>
+      <c r="H78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2253,9 +2489,12 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7429718375205994</v>
+        <v>0.9990875720977783</v>
       </c>
       <c r="G79" t="n">
+        <v>0.9990875720977783</v>
+      </c>
+      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2270,15 +2509,18 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5215576589107513</v>
+        <v>0.9704969525337219</v>
       </c>
       <c r="G80" t="n">
+        <v>0.9704969525337219</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2299,9 +2541,12 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9472224712371826</v>
+        <v>0.9968913197517395</v>
       </c>
       <c r="G81" t="n">
+        <v>0.9968913197517395</v>
+      </c>
+      <c r="H81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,9 +2567,12 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7405951023101807</v>
+        <v>0.9466270208358765</v>
       </c>
       <c r="G82" t="n">
+        <v>0.9466270208358765</v>
+      </c>
+      <c r="H82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2339,15 +2587,18 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.996005117893219</v>
+        <v>0.2387846559286118</v>
       </c>
       <c r="G83" t="n">
+        <v>0.7612153440713882</v>
+      </c>
+      <c r="H83" t="n">
         <v>137</v>
       </c>
     </row>
@@ -2362,15 +2613,18 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9469785206019878</v>
+        <v>0.9999042749404907</v>
       </c>
       <c r="G84" t="n">
+        <v>0.9999042749404907</v>
+      </c>
+      <c r="H84" t="n">
         <v>125</v>
       </c>
     </row>
@@ -2391,9 +2645,12 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9681248441338539</v>
+        <v>0.0005835097981616855</v>
       </c>
       <c r="G85" t="n">
+        <v>0.9994164902018383</v>
+      </c>
+      <c r="H85" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2414,9 +2671,12 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5405595898628235</v>
+        <v>0.1918356865644455</v>
       </c>
       <c r="G86" t="n">
+        <v>0.8081643134355545</v>
+      </c>
+      <c r="H86" t="n">
         <v>46</v>
       </c>
     </row>
@@ -2431,15 +2691,18 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6233569979667664</v>
+        <v>0.004888640716671944</v>
       </c>
       <c r="G87" t="n">
+        <v>0.9951113592833281</v>
+      </c>
+      <c r="H87" t="n">
         <v>138</v>
       </c>
     </row>
@@ -2454,15 +2717,18 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7440666258335114</v>
+        <v>0.9808712601661682</v>
       </c>
       <c r="G88" t="n">
+        <v>0.9808712601661682</v>
+      </c>
+      <c r="H88" t="n">
         <v>146</v>
       </c>
     </row>
@@ -2483,9 +2749,12 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9123040586709976</v>
+        <v>0.02842615358531475</v>
       </c>
       <c r="G89" t="n">
+        <v>0.9715738464146852</v>
+      </c>
+      <c r="H89" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2500,15 +2769,18 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8879021406173706</v>
+        <v>0.0004389478417579085</v>
       </c>
       <c r="G90" t="n">
+        <v>0.9995610521582421</v>
+      </c>
+      <c r="H90" t="n">
         <v>101</v>
       </c>
     </row>
@@ -2523,15 +2795,18 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6619431376457214</v>
+        <v>0.9981841444969177</v>
       </c>
       <c r="G91" t="n">
+        <v>0.9981841444969177</v>
+      </c>
+      <c r="H91" t="n">
         <v>148</v>
       </c>
     </row>
@@ -2552,9 +2827,12 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6247869729995728</v>
+        <v>0.9032707810401917</v>
       </c>
       <c r="G92" t="n">
+        <v>0.9032707810401917</v>
+      </c>
+      <c r="H92" t="n">
         <v>140</v>
       </c>
     </row>
@@ -2569,15 +2847,18 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5542473793029785</v>
+        <v>0.9995859265327454</v>
       </c>
       <c r="G93" t="n">
+        <v>0.9995859265327454</v>
+      </c>
+      <c r="H93" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2598,9 +2879,12 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9953031539916992</v>
+        <v>0.6739556789398193</v>
       </c>
       <c r="G94" t="n">
+        <v>0.6739556789398193</v>
+      </c>
+      <c r="H94" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2615,15 +2899,18 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9743058681488037</v>
+        <v>0.353905975818634</v>
       </c>
       <c r="G95" t="n">
+        <v>0.646094024181366</v>
+      </c>
+      <c r="H95" t="n">
         <v>40</v>
       </c>
     </row>
@@ -2644,9 +2931,12 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5802825689315796</v>
+        <v>0.6412395834922791</v>
       </c>
       <c r="G96" t="n">
+        <v>0.6412395834922791</v>
+      </c>
+      <c r="H96" t="n">
         <v>127</v>
       </c>
     </row>
@@ -2661,15 +2951,18 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6847289204597473</v>
+        <v>0.5540304780006409</v>
       </c>
       <c r="G97" t="n">
+        <v>0.5540304780006409</v>
+      </c>
+      <c r="H97" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2690,9 +2983,12 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7974986433982849</v>
+        <v>0.9324086904525757</v>
       </c>
       <c r="G98" t="n">
+        <v>0.9324086904525757</v>
+      </c>
+      <c r="H98" t="n">
         <v>130</v>
       </c>
     </row>
@@ -2713,9 +3009,12 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9962087869644165</v>
+        <v>0.9999980926513672</v>
       </c>
       <c r="G99" t="n">
+        <v>0.9999980926513672</v>
+      </c>
+      <c r="H99" t="n">
         <v>94</v>
       </c>
     </row>
@@ -2736,9 +3035,12 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.999094643688295</v>
+        <v>0.002278391504660249</v>
       </c>
       <c r="G100" t="n">
+        <v>0.9977216084953398</v>
+      </c>
+      <c r="H100" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2753,15 +3055,18 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5575315058231354</v>
+        <v>0.9868511557579041</v>
       </c>
       <c r="G101" t="n">
+        <v>0.9868511557579041</v>
+      </c>
+      <c r="H101" t="n">
         <v>135</v>
       </c>
     </row>
@@ -2776,15 +3081,18 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8405088782310486</v>
+        <v>0.2557950615882874</v>
       </c>
       <c r="G102" t="n">
+        <v>0.7442049384117126</v>
+      </c>
+      <c r="H102" t="n">
         <v>66</v>
       </c>
     </row>
@@ -2805,9 +3113,12 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.969238044694066</v>
+        <v>0.0002627794165164232</v>
       </c>
       <c r="G103" t="n">
+        <v>0.9997372205834836</v>
+      </c>
+      <c r="H103" t="n">
         <v>130</v>
       </c>
     </row>
@@ -2822,15 +3133,18 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6595403552055359</v>
+        <v>0.9997885823249817</v>
       </c>
       <c r="G104" t="n">
+        <v>0.9997885823249817</v>
+      </c>
+      <c r="H104" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2851,9 +3165,12 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9605812318623066</v>
+        <v>0.0001478797785239294</v>
       </c>
       <c r="G105" t="n">
+        <v>0.9998521202214761</v>
+      </c>
+      <c r="H105" t="n">
         <v>99</v>
       </c>
     </row>
@@ -2874,9 +3191,12 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7861554175615311</v>
+        <v>0.02737222798168659</v>
       </c>
       <c r="G106" t="n">
+        <v>0.9726277720183134</v>
+      </c>
+      <c r="H106" t="n">
         <v>121</v>
       </c>
     </row>
@@ -2897,9 +3217,12 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9933210066519678</v>
+        <v>0.04452910646796227</v>
       </c>
       <c r="G107" t="n">
+        <v>0.9554708935320377</v>
+      </c>
+      <c r="H107" t="n">
         <v>111</v>
       </c>
     </row>
